--- a/InterviewTest/output/230140/230140_failed.xlsx
+++ b/InterviewTest/output/230140/230140_failed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230140\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B281AD-0F60-4525-9978-EEAD0A03B99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA08050-A57D-4464-B520-C05CAB449970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/InterviewTest/output/230140/230140_failed.xlsx
+++ b/InterviewTest/output/230140/230140_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230140\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230140\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA08050-A57D-4464-B520-C05CAB449970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C445A85-4652-4FD6-AE4D-92725052562B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t xml:space="preserve">Field </t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Nguyễn Trần Gia Hân</t>
+  </si>
+  <si>
+    <t>26/10/2008</t>
   </si>
   <si>
     <t>null</t>
@@ -160,15 +163,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -538,8 +538,8 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>39747</v>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -555,7 +555,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -571,7 +571,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -587,7 +587,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -595,7 +595,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -611,7 +611,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -619,7 +619,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -633,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -641,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/InterviewTest/output/230140/230140_failed.xlsx
+++ b/InterviewTest/output/230140/230140_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230140\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230140\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C445A85-4652-4FD6-AE4D-92725052562B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB8EF96-01DF-42CD-B1BD-19DBA1409C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
